--- a/docs/video_stats.xlsx
+++ b/docs/video_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Desktop\video_stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.schambach\Desktop\DSR\drone_steering\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B863201-5A62-4639-B8DF-B17DF50BDDCA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DBF8E0-CFE7-4561-91B0-B2C5B7C55DEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17565" activeTab="1" xr2:uid="{8995E34F-5138-4941-94C4-512AB9704AE2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17568" activeTab="1" xr2:uid="{8995E34F-5138-4941-94C4-512AB9704AE2}"/>
   </bookViews>
   <sheets>
     <sheet name="ms_per_step" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">overall_time!$A$1:$C$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>takeoff_l_02</t>
   </si>
@@ -80,6 +79,12 @@
   </si>
   <si>
     <t>delta</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>flip_p_01</t>
   </si>
 </sst>
 </file>
@@ -37447,7 +37452,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="527284312"/>
@@ -37507,7 +37512,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="527283984"/>
@@ -37542,7 +37547,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -37558,7 +37563,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -39005,7 +39010,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="527284312"/>
@@ -39065,7 +39070,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="527283984"/>
@@ -39100,7 +39105,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -39116,7 +39121,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -39167,7 +39172,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -39350,7 +39355,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="525365264"/>
@@ -39409,7 +39414,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="525361656"/>
@@ -39452,7 +39457,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -39528,7 +39533,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -39830,7 +39835,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="422384632"/>
@@ -39889,7 +39894,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="422386928"/>
@@ -39931,7 +39936,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -39956,7 +39961,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -41482,9 +41487,9 @@
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -41522,7 +41527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>193</v>
       </c>
@@ -41560,7 +41565,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>128</v>
       </c>
@@ -41598,7 +41603,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>131</v>
       </c>
@@ -41636,7 +41641,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>126</v>
       </c>
@@ -41674,7 +41679,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>132</v>
       </c>
@@ -41712,7 +41717,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>128</v>
       </c>
@@ -41750,7 +41755,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>129</v>
       </c>
@@ -41788,7 +41793,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>130</v>
       </c>
@@ -41826,7 +41831,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>128</v>
       </c>
@@ -41864,7 +41869,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>137</v>
       </c>
@@ -41902,7 +41907,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>131</v>
       </c>
@@ -41940,7 +41945,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>131</v>
       </c>
@@ -41978,7 +41983,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>133</v>
       </c>
@@ -42016,7 +42021,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>139</v>
       </c>
@@ -42054,7 +42059,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>127</v>
       </c>
@@ -42092,7 +42097,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>132</v>
       </c>
@@ -42130,7 +42135,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>132</v>
       </c>
@@ -42168,7 +42173,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>123</v>
       </c>
@@ -42206,7 +42211,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>134</v>
       </c>
@@ -42244,7 +42249,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>129</v>
       </c>
@@ -42282,7 +42287,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>148</v>
       </c>
@@ -42320,7 +42325,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>147</v>
       </c>
@@ -42358,7 +42363,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>133</v>
       </c>
@@ -42396,7 +42401,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>136</v>
       </c>
@@ -42434,7 +42439,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>130</v>
       </c>
@@ -42472,7 +42477,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>135</v>
       </c>
@@ -42510,7 +42515,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>138</v>
       </c>
@@ -42548,7 +42553,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>128</v>
       </c>
@@ -42586,7 +42591,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>134</v>
       </c>
@@ -42624,7 +42629,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>137</v>
       </c>
@@ -42662,7 +42667,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>129</v>
       </c>
@@ -42700,7 +42705,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>174</v>
       </c>
@@ -42738,7 +42743,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>134</v>
       </c>
@@ -42776,7 +42781,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>132</v>
       </c>
@@ -42814,7 +42819,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>134</v>
       </c>
@@ -42852,7 +42857,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>134</v>
       </c>
@@ -42890,7 +42895,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>134</v>
       </c>
@@ -42928,7 +42933,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>133</v>
       </c>
@@ -42966,7 +42971,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>128</v>
       </c>
@@ -43004,7 +43009,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>130</v>
       </c>
@@ -43042,7 +43047,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>128</v>
       </c>
@@ -43080,7 +43085,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>152</v>
       </c>
@@ -43118,7 +43123,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>181</v>
       </c>
@@ -43156,7 +43161,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>133</v>
       </c>
@@ -43194,7 +43199,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>126</v>
       </c>
@@ -43232,7 +43237,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>132</v>
       </c>
@@ -43270,7 +43275,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>131</v>
       </c>
@@ -43308,7 +43313,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>130</v>
       </c>
@@ -43346,7 +43351,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>128</v>
       </c>
@@ -43384,7 +43389,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>134</v>
       </c>
@@ -43422,7 +43427,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>132</v>
       </c>
@@ -43460,7 +43465,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>134</v>
       </c>
@@ -43498,7 +43503,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>134</v>
       </c>
@@ -43536,7 +43541,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>133</v>
       </c>
@@ -43574,7 +43579,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>158</v>
       </c>
@@ -43612,7 +43617,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>128</v>
       </c>
@@ -43650,7 +43655,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>132</v>
       </c>
@@ -43688,7 +43693,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>126</v>
       </c>
@@ -43726,7 +43731,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>131</v>
       </c>
@@ -43764,7 +43769,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>125</v>
       </c>
@@ -43802,7 +43807,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>129</v>
       </c>
@@ -43840,7 +43845,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>133</v>
       </c>
@@ -43878,7 +43883,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>134</v>
       </c>
@@ -43916,7 +43921,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>217</v>
       </c>
@@ -43954,7 +43959,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>215</v>
       </c>
@@ -43992,7 +43997,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>157</v>
       </c>
@@ -44030,7 +44035,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>136</v>
       </c>
@@ -44068,7 +44073,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>137</v>
       </c>
@@ -44106,7 +44111,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>131</v>
       </c>
@@ -44144,7 +44149,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>129</v>
       </c>
@@ -44182,7 +44187,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>128</v>
       </c>
@@ -44220,7 +44225,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>126</v>
       </c>
@@ -44258,7 +44263,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>132</v>
       </c>
@@ -44296,7 +44301,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>133</v>
       </c>
@@ -44334,7 +44339,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>132</v>
       </c>
@@ -44372,7 +44377,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>131</v>
       </c>
@@ -44410,7 +44415,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>136</v>
       </c>
@@ -44448,7 +44453,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>134</v>
       </c>
@@ -44486,7 +44491,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>131</v>
       </c>
@@ -44524,7 +44529,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>137</v>
       </c>
@@ -44562,7 +44567,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>132</v>
       </c>
@@ -44600,7 +44605,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>131</v>
       </c>
@@ -44638,7 +44643,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>135</v>
       </c>
@@ -44676,7 +44681,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>129</v>
       </c>
@@ -44714,7 +44719,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>134</v>
       </c>
@@ -44752,7 +44757,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>205</v>
       </c>
@@ -44790,7 +44795,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>186</v>
       </c>
@@ -44828,7 +44833,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>149</v>
       </c>
@@ -44866,7 +44871,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>129</v>
       </c>
@@ -44904,7 +44909,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>132</v>
       </c>
@@ -44942,7 +44947,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>130</v>
       </c>
@@ -44980,7 +44985,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>131</v>
       </c>
@@ -45018,7 +45023,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>127</v>
       </c>
@@ -45056,7 +45061,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>127</v>
       </c>
@@ -45094,7 +45099,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>131</v>
       </c>
@@ -45132,7 +45137,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>129</v>
       </c>
@@ -45170,7 +45175,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>130</v>
       </c>
@@ -45208,7 +45213,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>133</v>
       </c>
@@ -45246,7 +45251,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>127</v>
       </c>
@@ -45284,7 +45289,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>132</v>
       </c>
@@ -45322,7 +45327,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>127</v>
       </c>
@@ -45360,7 +45365,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>130</v>
       </c>
@@ -45398,7 +45403,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>127</v>
       </c>
@@ -45436,7 +45441,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>130</v>
       </c>
@@ -45474,7 +45479,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>121</v>
       </c>
@@ -45512,7 +45517,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>125</v>
       </c>
@@ -45550,7 +45555,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>141</v>
       </c>
@@ -45588,7 +45593,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>178</v>
       </c>
@@ -45626,7 +45631,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>133</v>
       </c>
@@ -45664,7 +45669,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>131</v>
       </c>
@@ -45702,7 +45707,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>132</v>
       </c>
@@ -45740,7 +45745,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>130</v>
       </c>
@@ -45778,7 +45783,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>132</v>
       </c>
@@ -45816,7 +45821,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>134</v>
       </c>
@@ -45854,7 +45859,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>133</v>
       </c>
@@ -45892,7 +45897,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>124</v>
       </c>
@@ -45930,7 +45935,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>130</v>
       </c>
@@ -45968,7 +45973,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>127</v>
       </c>
@@ -46006,7 +46011,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>128</v>
       </c>
@@ -46044,7 +46049,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>131</v>
       </c>
@@ -46082,7 +46087,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>130</v>
       </c>
@@ -46120,7 +46125,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>132</v>
       </c>
@@ -46158,7 +46163,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>130</v>
       </c>
@@ -46196,7 +46201,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>129</v>
       </c>
@@ -46234,7 +46239,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>132</v>
       </c>
@@ -46272,7 +46277,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>137</v>
       </c>
@@ -46310,7 +46315,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>135</v>
       </c>
@@ -46348,7 +46353,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>152</v>
       </c>
@@ -46386,7 +46391,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>212</v>
       </c>
@@ -46424,7 +46429,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -46462,7 +46467,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>132</v>
       </c>
@@ -46500,7 +46505,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>130</v>
       </c>
@@ -46538,7 +46543,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -46576,7 +46581,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -46614,7 +46619,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>124</v>
       </c>
@@ -46652,7 +46657,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>134</v>
       </c>
@@ -46690,7 +46695,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>132</v>
       </c>
@@ -46728,7 +46733,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>129</v>
       </c>
@@ -46766,7 +46771,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>130</v>
       </c>
@@ -46804,7 +46809,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>133</v>
       </c>
@@ -46842,7 +46847,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>133</v>
       </c>
@@ -46880,7 +46885,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>129</v>
       </c>
@@ -46918,7 +46923,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>127</v>
       </c>
@@ -46956,7 +46961,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>132</v>
       </c>
@@ -46994,7 +46999,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>128</v>
       </c>
@@ -47032,7 +47037,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>130</v>
       </c>
@@ -47070,7 +47075,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>128</v>
       </c>
@@ -47108,7 +47113,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>134</v>
       </c>
@@ -47146,7 +47151,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>152</v>
       </c>
@@ -47184,7 +47189,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>184</v>
       </c>
@@ -47222,7 +47227,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>128</v>
       </c>
@@ -47260,7 +47265,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>129</v>
       </c>
@@ -47298,7 +47303,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>131</v>
       </c>
@@ -47336,7 +47341,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>134</v>
       </c>
@@ -47374,7 +47379,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>134</v>
       </c>
@@ -47412,7 +47417,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>132</v>
       </c>
@@ -47450,7 +47455,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>133</v>
       </c>
@@ -47488,7 +47493,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>131</v>
       </c>
@@ -47526,7 +47531,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>131</v>
       </c>
@@ -47564,7 +47569,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>145</v>
       </c>
@@ -47602,7 +47607,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>134</v>
       </c>
@@ -47640,7 +47645,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>129</v>
       </c>
@@ -47678,7 +47683,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>125</v>
       </c>
@@ -47716,7 +47721,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>128</v>
       </c>
@@ -47754,7 +47759,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>126</v>
       </c>
@@ -47792,7 +47797,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>121</v>
       </c>
@@ -47830,7 +47835,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>124</v>
       </c>
@@ -47868,7 +47873,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>127</v>
       </c>
@@ -47906,7 +47911,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>129</v>
       </c>
@@ -47944,7 +47949,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>134</v>
       </c>
@@ -47982,7 +47987,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>197</v>
       </c>
@@ -48020,7 +48025,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>130</v>
       </c>
@@ -48058,7 +48063,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>129</v>
       </c>
@@ -48096,7 +48101,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>125</v>
       </c>
@@ -48134,7 +48139,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>129</v>
       </c>
@@ -48172,7 +48177,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>127</v>
       </c>
@@ -48210,7 +48215,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>129</v>
       </c>
@@ -48248,7 +48253,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>128</v>
       </c>
@@ -48286,7 +48291,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>122</v>
       </c>
@@ -48324,7 +48329,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>129</v>
       </c>
@@ -48362,7 +48367,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>133</v>
       </c>
@@ -48400,7 +48405,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>124</v>
       </c>
@@ -48438,7 +48443,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>132</v>
       </c>
@@ -48476,7 +48481,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>130</v>
       </c>
@@ -48514,7 +48519,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>131</v>
       </c>
@@ -48552,7 +48557,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>128</v>
       </c>
@@ -48590,7 +48595,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>131</v>
       </c>
@@ -48628,7 +48633,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>125</v>
       </c>
@@ -48666,7 +48671,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>130</v>
       </c>
@@ -48704,7 +48709,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>129</v>
       </c>
@@ -48742,7 +48747,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>141</v>
       </c>
@@ -48780,7 +48785,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>194</v>
       </c>
@@ -48818,7 +48823,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>130</v>
       </c>
@@ -48856,7 +48861,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>123</v>
       </c>
@@ -48894,7 +48899,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>128</v>
       </c>
@@ -48932,7 +48937,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>125</v>
       </c>
@@ -48970,7 +48975,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>132</v>
       </c>
@@ -49008,7 +49013,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>126</v>
       </c>
@@ -49046,7 +49051,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>130</v>
       </c>
@@ -49084,7 +49089,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>127</v>
       </c>
@@ -49122,7 +49127,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>126</v>
       </c>
@@ -49160,7 +49165,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>130</v>
       </c>
@@ -49198,7 +49203,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>124</v>
       </c>
@@ -49236,7 +49241,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>132</v>
       </c>
@@ -49274,7 +49279,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>130</v>
       </c>
@@ -49312,7 +49317,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>129</v>
       </c>
@@ -49350,7 +49355,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>133</v>
       </c>
@@ -49388,7 +49393,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>133</v>
       </c>
@@ -49426,7 +49431,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>130</v>
       </c>
@@ -49464,7 +49469,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>127</v>
       </c>
@@ -49502,7 +49507,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>129</v>
       </c>
@@ -49540,7 +49545,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>144</v>
       </c>
@@ -49578,7 +49583,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>198</v>
       </c>
@@ -49616,7 +49621,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>131</v>
       </c>
@@ -49654,7 +49659,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>136</v>
       </c>
@@ -49692,7 +49697,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>130</v>
       </c>
@@ -49730,7 +49735,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>136</v>
       </c>
@@ -49768,7 +49773,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>132</v>
       </c>
@@ -49806,7 +49811,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>135</v>
       </c>
@@ -49844,7 +49849,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>135</v>
       </c>
@@ -49882,7 +49887,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>127</v>
       </c>
@@ -49920,7 +49925,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>133</v>
       </c>
@@ -49958,7 +49963,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>133</v>
       </c>
@@ -49996,7 +50001,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>129</v>
       </c>
@@ -50034,7 +50039,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>123</v>
       </c>
@@ -50072,7 +50077,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>133</v>
       </c>
@@ -50110,7 +50115,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>131</v>
       </c>
@@ -50148,7 +50153,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>146</v>
       </c>
@@ -50186,7 +50191,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>135</v>
       </c>
@@ -50224,7 +50229,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>134</v>
       </c>
@@ -50262,7 +50267,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>131</v>
       </c>
@@ -50300,7 +50305,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>130</v>
       </c>
@@ -50338,7 +50343,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>151</v>
       </c>
@@ -50376,7 +50381,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>182</v>
       </c>
@@ -50414,7 +50419,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>134</v>
       </c>
@@ -50452,7 +50457,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>138</v>
       </c>
@@ -50490,7 +50495,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>129</v>
       </c>
@@ -50528,7 +50533,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>138</v>
       </c>
@@ -50566,7 +50571,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>124</v>
       </c>
@@ -50604,7 +50609,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>128</v>
       </c>
@@ -50642,7 +50647,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>123</v>
       </c>
@@ -50680,7 +50685,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>125</v>
       </c>
@@ -50718,7 +50723,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>122</v>
       </c>
@@ -50756,7 +50761,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>129</v>
       </c>
@@ -50794,7 +50799,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>123</v>
       </c>
@@ -50832,7 +50837,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>127</v>
       </c>
@@ -50870,7 +50875,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>129</v>
       </c>
@@ -50908,7 +50913,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>126</v>
       </c>
@@ -50946,7 +50951,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>129</v>
       </c>
@@ -50984,7 +50989,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>125</v>
       </c>
@@ -51022,7 +51027,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>126</v>
       </c>
@@ -51060,7 +51065,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>125</v>
       </c>
@@ -51098,7 +51103,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>131</v>
       </c>
@@ -51136,7 +51141,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>155</v>
       </c>
@@ -51174,7 +51179,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>191</v>
       </c>
@@ -51212,7 +51217,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>125</v>
       </c>
@@ -51250,7 +51255,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>125</v>
       </c>
@@ -51288,7 +51293,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>120</v>
       </c>
@@ -51326,7 +51331,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>124</v>
       </c>
@@ -51364,7 +51369,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>130</v>
       </c>
@@ -51402,7 +51407,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>122</v>
       </c>
@@ -51440,7 +51445,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>131</v>
       </c>
@@ -51478,7 +51483,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>130</v>
       </c>
@@ -51516,7 +51521,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>127</v>
       </c>
@@ -51554,7 +51559,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>123</v>
       </c>
@@ -51592,7 +51597,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>126</v>
       </c>
@@ -51630,7 +51635,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>128</v>
       </c>
@@ -51668,7 +51673,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>131</v>
       </c>
@@ -51706,7 +51711,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>127</v>
       </c>
@@ -51744,7 +51749,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>125</v>
       </c>
@@ -51782,7 +51787,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>125</v>
       </c>
@@ -51820,7 +51825,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>128</v>
       </c>
@@ -51858,7 +51863,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>129</v>
       </c>
@@ -51896,7 +51901,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>124</v>
       </c>
@@ -51934,7 +51939,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>148</v>
       </c>
@@ -51972,7 +51977,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>186</v>
       </c>
@@ -52010,7 +52015,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>128</v>
       </c>
@@ -52048,7 +52053,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>125</v>
       </c>
@@ -52086,7 +52091,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>133</v>
       </c>
@@ -52124,7 +52129,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>132</v>
       </c>
@@ -52162,7 +52167,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>132</v>
       </c>
@@ -52200,7 +52205,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>129</v>
       </c>
@@ -52238,7 +52243,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>133</v>
       </c>
@@ -52276,7 +52281,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>133</v>
       </c>
@@ -52314,7 +52319,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>132</v>
       </c>
@@ -52352,7 +52357,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>133</v>
       </c>
@@ -52390,7 +52395,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>129</v>
       </c>
@@ -52428,7 +52433,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>130</v>
       </c>
@@ -52466,7 +52471,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>124</v>
       </c>
@@ -52504,7 +52509,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>130</v>
       </c>
@@ -52542,7 +52547,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>130</v>
       </c>
@@ -52580,7 +52585,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>126</v>
       </c>
@@ -52618,7 +52623,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>129</v>
       </c>
@@ -52656,7 +52661,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>128</v>
       </c>
@@ -52694,7 +52699,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>128</v>
       </c>
@@ -52732,7 +52737,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>144</v>
       </c>
@@ -52770,7 +52775,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>185</v>
       </c>
@@ -52808,7 +52813,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>129</v>
       </c>
@@ -52846,7 +52851,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>128</v>
       </c>
@@ -52884,7 +52889,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>123</v>
       </c>
@@ -52922,7 +52927,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>131</v>
       </c>
@@ -52960,7 +52965,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>126</v>
       </c>
@@ -52998,7 +53003,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>129</v>
       </c>
@@ -53036,7 +53041,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>131</v>
       </c>
@@ -53074,7 +53079,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>130</v>
       </c>
@@ -53112,7 +53117,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>128</v>
       </c>
@@ -53150,7 +53155,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>133</v>
       </c>
@@ -53188,7 +53193,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>131</v>
       </c>
@@ -53226,7 +53231,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>124</v>
       </c>
@@ -53264,7 +53269,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>122</v>
       </c>
@@ -53302,7 +53307,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>128</v>
       </c>
@@ -53340,7 +53345,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>129</v>
       </c>
@@ -53378,7 +53383,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>130</v>
       </c>
@@ -53416,7 +53421,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>130</v>
       </c>
@@ -53454,7 +53459,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>126</v>
       </c>
@@ -53492,7 +53497,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>125</v>
       </c>
@@ -53530,7 +53535,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>150</v>
       </c>
@@ -53568,7 +53573,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>210</v>
       </c>
@@ -53606,7 +53611,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>130</v>
       </c>
@@ -53644,7 +53649,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>131</v>
       </c>
@@ -53682,7 +53687,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>130</v>
       </c>
@@ -53720,7 +53725,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>127</v>
       </c>
@@ -53758,7 +53763,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>127</v>
       </c>
@@ -53796,7 +53801,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>130</v>
       </c>
@@ -53834,7 +53839,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>127</v>
       </c>
@@ -53872,7 +53877,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>127</v>
       </c>
@@ -53910,7 +53915,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>131</v>
       </c>
@@ -53948,7 +53953,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>131</v>
       </c>
@@ -53986,7 +53991,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>125</v>
       </c>
@@ -54024,7 +54029,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>128</v>
       </c>
@@ -54062,7 +54067,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>123</v>
       </c>
@@ -54100,7 +54105,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>130</v>
       </c>
@@ -54138,7 +54143,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>124</v>
       </c>
@@ -54176,7 +54181,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>124</v>
       </c>
@@ -54214,7 +54219,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>122</v>
       </c>
@@ -54252,7 +54257,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>125</v>
       </c>
@@ -54290,7 +54295,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>127</v>
       </c>
@@ -54328,7 +54333,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>125</v>
       </c>
@@ -54366,7 +54371,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>201</v>
       </c>
@@ -54404,7 +54409,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>214</v>
       </c>
@@ -54442,7 +54447,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>145</v>
       </c>
@@ -54480,7 +54485,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>130</v>
       </c>
@@ -54518,7 +54523,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>128</v>
       </c>
@@ -54556,7 +54561,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>129</v>
       </c>
@@ -54594,7 +54599,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>130</v>
       </c>
@@ -54632,7 +54637,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>128</v>
       </c>
@@ -54670,7 +54675,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>125</v>
       </c>
@@ -54708,7 +54713,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>129</v>
       </c>
@@ -54746,7 +54751,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>132</v>
       </c>
@@ -54784,7 +54789,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>129</v>
       </c>
@@ -54822,7 +54827,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>128</v>
       </c>
@@ -54860,7 +54865,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>131</v>
       </c>
@@ -54898,7 +54903,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>132</v>
       </c>
@@ -54936,7 +54941,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>128</v>
       </c>
@@ -54974,7 +54979,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>130</v>
       </c>
@@ -55012,7 +55017,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>125</v>
       </c>
@@ -55050,7 +55055,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>127</v>
       </c>
@@ -55088,7 +55093,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>135</v>
       </c>
@@ -55126,7 +55131,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>133</v>
       </c>
@@ -55164,7 +55169,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>126</v>
       </c>
@@ -55202,7 +55207,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>199</v>
       </c>
@@ -55240,7 +55245,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>233</v>
       </c>
@@ -55278,7 +55283,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>152</v>
       </c>
@@ -55316,7 +55321,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>132</v>
       </c>
@@ -55354,7 +55359,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>132</v>
       </c>
@@ -55392,7 +55397,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>131</v>
       </c>
@@ -55430,7 +55435,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>126</v>
       </c>
@@ -55468,7 +55473,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>131</v>
       </c>
@@ -55506,7 +55511,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>126</v>
       </c>
@@ -55544,7 +55549,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>132</v>
       </c>
@@ -55582,7 +55587,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>136</v>
       </c>
@@ -55620,7 +55625,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>130</v>
       </c>
@@ -55658,7 +55663,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>133</v>
       </c>
@@ -55696,7 +55701,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>131</v>
       </c>
@@ -55734,7 +55739,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>130</v>
       </c>
@@ -55772,7 +55777,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>143</v>
       </c>
@@ -55810,7 +55815,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>120</v>
       </c>
@@ -55848,7 +55853,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>129</v>
       </c>
@@ -55886,7 +55891,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>125</v>
       </c>
@@ -55924,7 +55929,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>126</v>
       </c>
@@ -55962,7 +55967,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>126</v>
       </c>
@@ -56000,7 +56005,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>144</v>
       </c>
@@ -56038,7 +56043,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>192</v>
       </c>
@@ -56076,7 +56081,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>128</v>
       </c>
@@ -56114,7 +56119,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>155</v>
       </c>
@@ -56152,7 +56157,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>133</v>
       </c>
@@ -56190,7 +56195,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>129</v>
       </c>
@@ -56228,7 +56233,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>130</v>
       </c>
@@ -56266,7 +56271,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>128</v>
       </c>
@@ -56304,7 +56309,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>135</v>
       </c>
@@ -56342,7 +56347,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>131</v>
       </c>
@@ -56380,7 +56385,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>135</v>
       </c>
@@ -56418,7 +56423,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>135</v>
       </c>
@@ -56456,7 +56461,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>130</v>
       </c>
@@ -56494,7 +56499,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>129</v>
       </c>
@@ -56532,7 +56537,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>126</v>
       </c>
@@ -56570,7 +56575,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>128</v>
       </c>
@@ -56608,7 +56613,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>132</v>
       </c>
@@ -56646,7 +56651,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>133</v>
       </c>
@@ -56684,7 +56689,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>133</v>
       </c>
@@ -56722,7 +56727,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>134</v>
       </c>
@@ -56760,7 +56765,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>129</v>
       </c>
@@ -56798,7 +56803,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>149</v>
       </c>
@@ -56836,7 +56841,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>154</v>
       </c>
@@ -56874,7 +56879,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>128</v>
       </c>
@@ -56912,7 +56917,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>126</v>
       </c>
@@ -56950,7 +56955,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>127</v>
       </c>
@@ -56988,7 +56993,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>130</v>
       </c>
@@ -57026,7 +57031,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>130</v>
       </c>
@@ -57064,7 +57069,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>129</v>
       </c>
@@ -57102,7 +57107,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>126</v>
       </c>
@@ -57140,7 +57145,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>122</v>
       </c>
@@ -57178,7 +57183,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>129</v>
       </c>
@@ -57216,7 +57221,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>127</v>
       </c>
@@ -57254,7 +57259,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>129</v>
       </c>
@@ -57292,7 +57297,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>132</v>
       </c>
@@ -57330,7 +57335,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>133</v>
       </c>
@@ -57368,7 +57373,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>126</v>
       </c>
@@ -57406,7 +57411,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>128</v>
       </c>
@@ -57444,7 +57449,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>124</v>
       </c>
@@ -57482,7 +57487,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>125</v>
       </c>
@@ -57520,7 +57525,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>127</v>
       </c>
@@ -57558,7 +57563,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>129</v>
       </c>
@@ -57596,7 +57601,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>137</v>
       </c>
@@ -57634,7 +57639,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>203</v>
       </c>
@@ -57672,7 +57677,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>130</v>
       </c>
@@ -57710,7 +57715,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>131</v>
       </c>
@@ -57748,7 +57753,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>128</v>
       </c>
@@ -57786,7 +57791,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>132</v>
       </c>
@@ -57824,7 +57829,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>133</v>
       </c>
@@ -57862,7 +57867,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>128</v>
       </c>
@@ -57900,7 +57905,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>132</v>
       </c>
@@ -57938,7 +57943,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>121</v>
       </c>
@@ -57973,7 +57978,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>129</v>
       </c>
@@ -58008,7 +58013,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>132</v>
       </c>
@@ -58043,7 +58048,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>125</v>
       </c>
@@ -58078,7 +58083,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>128</v>
       </c>
@@ -58113,7 +58118,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>131</v>
       </c>
@@ -58148,7 +58153,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>128</v>
       </c>
@@ -58183,7 +58188,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>131</v>
       </c>
@@ -58218,7 +58223,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>130</v>
       </c>
@@ -58253,7 +58258,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>128</v>
       </c>
@@ -58288,7 +58293,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>129</v>
       </c>
@@ -58323,7 +58328,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>133</v>
       </c>
@@ -58358,7 +58363,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>133</v>
       </c>
@@ -58393,7 +58398,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>207</v>
       </c>
@@ -58428,7 +58433,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>243</v>
       </c>
@@ -58463,7 +58468,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>148</v>
       </c>
@@ -58498,7 +58503,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>130</v>
       </c>
@@ -58533,7 +58538,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>128</v>
       </c>
@@ -58568,7 +58573,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>132</v>
       </c>
@@ -58603,7 +58608,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>132</v>
       </c>
@@ -58638,7 +58643,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>129</v>
       </c>
@@ -58670,7 +58675,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>132</v>
       </c>
@@ -58702,7 +58707,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>134</v>
       </c>
@@ -58734,7 +58739,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>134</v>
       </c>
@@ -58766,7 +58771,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>131</v>
       </c>
@@ -58798,7 +58803,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>128</v>
       </c>
@@ -58830,7 +58835,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>133</v>
       </c>
@@ -58862,7 +58867,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>127</v>
       </c>
@@ -58894,7 +58899,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>130</v>
       </c>
@@ -58926,7 +58931,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>132</v>
       </c>
@@ -58958,7 +58963,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>130</v>
       </c>
@@ -58990,7 +58995,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>130</v>
       </c>
@@ -59022,7 +59027,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>137</v>
       </c>
@@ -59054,7 +59059,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>125</v>
       </c>
@@ -59086,7 +59091,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>133</v>
       </c>
@@ -59118,7 +59123,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>211</v>
       </c>
@@ -59150,7 +59155,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>222</v>
       </c>
@@ -59182,7 +59187,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>148</v>
       </c>
@@ -59214,7 +59219,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>129</v>
       </c>
@@ -59246,7 +59251,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>130</v>
       </c>
@@ -59278,7 +59283,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>134</v>
       </c>
@@ -59310,7 +59315,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>136</v>
       </c>
@@ -59342,7 +59347,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>134</v>
       </c>
@@ -59374,7 +59379,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>133</v>
       </c>
@@ -59406,7 +59411,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>133</v>
       </c>
@@ -59438,7 +59443,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>134</v>
       </c>
@@ -59470,7 +59475,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>133</v>
       </c>
@@ -59502,7 +59507,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>134</v>
       </c>
@@ -59534,7 +59539,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>138</v>
       </c>
@@ -59566,7 +59571,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>131</v>
       </c>
@@ -59598,7 +59603,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>132</v>
       </c>
@@ -59624,7 +59629,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>138</v>
       </c>
@@ -59650,7 +59655,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>132</v>
       </c>
@@ -59676,7 +59681,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>128</v>
       </c>
@@ -59702,7 +59707,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>133</v>
       </c>
@@ -59728,7 +59733,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>130</v>
       </c>
@@ -59754,7 +59759,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>127</v>
       </c>
@@ -59780,7 +59785,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>210</v>
       </c>
@@ -59806,7 +59811,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>223</v>
       </c>
@@ -59832,7 +59837,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>148</v>
       </c>
@@ -59858,7 +59863,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>133</v>
       </c>
@@ -59881,7 +59886,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>138</v>
       </c>
@@ -59904,7 +59909,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>135</v>
       </c>
@@ -59927,7 +59932,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>130</v>
       </c>
@@ -59950,7 +59955,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>131</v>
       </c>
@@ -59973,7 +59978,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B499">
         <v>125</v>
       </c>
@@ -59993,7 +59998,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B500">
         <v>129</v>
       </c>
@@ -60013,7 +60018,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B501">
         <v>128</v>
       </c>
@@ -60033,7 +60038,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B502">
         <v>143</v>
       </c>
@@ -60053,7 +60058,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B503">
         <v>147</v>
       </c>
@@ -60073,7 +60078,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B504">
         <v>130</v>
       </c>
@@ -60093,7 +60098,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B505">
         <v>132</v>
       </c>
@@ -60113,7 +60118,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B506">
         <v>130</v>
       </c>
@@ -60133,7 +60138,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B507">
         <v>133</v>
       </c>
@@ -60153,7 +60158,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B508">
         <v>127</v>
       </c>
@@ -60170,7 +60175,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B509">
         <v>128</v>
       </c>
@@ -60187,7 +60192,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B510">
         <v>131</v>
       </c>
@@ -60204,7 +60209,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B511">
         <v>123</v>
       </c>
@@ -60221,7 +60226,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B512">
         <v>128</v>
       </c>
@@ -60238,7 +60243,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="513" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B513">
         <v>131</v>
       </c>
@@ -60255,7 +60260,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="514" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B514">
         <v>129</v>
       </c>
@@ -60272,7 +60277,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="515" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B515">
         <v>136</v>
       </c>
@@ -60289,7 +60294,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="516" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B516">
         <v>127</v>
       </c>
@@ -60303,7 +60308,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="517" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B517">
         <v>137</v>
       </c>
@@ -60317,7 +60322,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="518" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B518">
         <v>135</v>
       </c>
@@ -60331,7 +60336,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="519" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B519">
         <v>131</v>
       </c>
@@ -60345,7 +60350,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="520" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B520">
         <v>132</v>
       </c>
@@ -60359,7 +60364,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="521" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B521">
         <v>128</v>
       </c>
@@ -60373,7 +60378,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="522" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B522">
         <v>127</v>
       </c>
@@ -60387,7 +60392,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="523" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B523">
         <v>134</v>
       </c>
@@ -60401,7 +60406,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="524" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B524">
         <v>198</v>
       </c>
@@ -60415,7 +60420,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="525" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B525">
         <v>173</v>
       </c>
@@ -60429,7 +60434,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="526" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B526">
         <v>148</v>
       </c>
@@ -60440,7 +60445,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="527" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B527">
         <v>129</v>
       </c>
@@ -60451,7 +60456,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="528" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B528">
         <v>133</v>
       </c>
@@ -60462,7 +60467,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="529" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B529">
         <v>132</v>
       </c>
@@ -60473,7 +60478,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="530" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B530">
         <v>129</v>
       </c>
@@ -60484,7 +60489,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="531" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B531">
         <v>130</v>
       </c>
@@ -60495,7 +60500,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="532" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B532">
         <v>133</v>
       </c>
@@ -60506,7 +60511,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="533" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B533">
         <v>128</v>
       </c>
@@ -60517,7 +60522,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="534" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B534">
         <v>135</v>
       </c>
@@ -60528,7 +60533,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="535" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B535">
         <v>127</v>
       </c>
@@ -60539,7 +60544,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="536" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B536">
         <v>127</v>
       </c>
@@ -60550,7 +60555,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="537" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B537">
         <v>127</v>
       </c>
@@ -60558,7 +60563,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="538" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B538">
         <v>132</v>
       </c>
@@ -60566,7 +60571,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="539" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B539">
         <v>128</v>
       </c>
@@ -60574,7 +60579,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="540" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B540">
         <v>128</v>
       </c>
@@ -60582,7 +60587,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="541" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B541">
         <v>133</v>
       </c>
@@ -60590,227 +60595,227 @@
         <v>137</v>
       </c>
     </row>
-    <row r="542" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B542">
         <v>133</v>
       </c>
     </row>
-    <row r="543" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B543">
         <v>130</v>
       </c>
     </row>
-    <row r="544" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B544">
         <v>132</v>
       </c>
     </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B545">
         <v>146</v>
       </c>
     </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B546">
         <v>150</v>
       </c>
     </row>
-    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B547">
         <v>137</v>
       </c>
     </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B548">
         <v>131</v>
       </c>
     </row>
-    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B549">
         <v>131</v>
       </c>
     </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B550">
         <v>131</v>
       </c>
     </row>
-    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B551">
         <v>131</v>
       </c>
     </row>
-    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B552">
         <v>126</v>
       </c>
     </row>
-    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B553">
         <v>130</v>
       </c>
     </row>
-    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B554">
         <v>130</v>
       </c>
     </row>
-    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B555">
         <v>127</v>
       </c>
     </row>
-    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B556">
         <v>132</v>
       </c>
     </row>
-    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B557">
         <v>127</v>
       </c>
     </row>
-    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B558">
         <v>129</v>
       </c>
     </row>
-    <row r="559" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B559">
         <v>127</v>
       </c>
     </row>
-    <row r="560" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B560">
         <v>132</v>
       </c>
     </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B561">
         <v>131</v>
       </c>
     </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B562">
         <v>130</v>
       </c>
     </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B563">
         <v>129</v>
       </c>
     </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B564">
         <v>129</v>
       </c>
     </row>
-    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B565">
         <v>130</v>
       </c>
     </row>
-    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B566">
         <v>145</v>
       </c>
     </row>
-    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B567">
         <v>155</v>
       </c>
     </row>
-    <row r="568" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B568">
         <v>129</v>
       </c>
     </row>
-    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B569">
         <v>124</v>
       </c>
     </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B570">
         <v>130</v>
       </c>
     </row>
-    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B571">
         <v>130</v>
       </c>
     </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B572">
         <v>131</v>
       </c>
     </row>
-    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B573">
         <v>128</v>
       </c>
     </row>
-    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B574">
         <v>128</v>
       </c>
     </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B575">
         <v>127</v>
       </c>
     </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B576">
         <v>127</v>
       </c>
     </row>
-    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B577">
         <v>130</v>
       </c>
     </row>
-    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B578">
         <v>132</v>
       </c>
     </row>
-    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B579">
         <v>128</v>
       </c>
     </row>
-    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B580">
         <v>127</v>
       </c>
     </row>
-    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B581">
         <v>129</v>
       </c>
     </row>
-    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B582">
         <v>130</v>
       </c>
     </row>
-    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B583">
         <v>130</v>
       </c>
     </row>
-    <row r="584" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B584">
         <v>131</v>
       </c>
     </row>
-    <row r="585" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B585">
         <v>131</v>
       </c>
     </row>
-    <row r="586" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B586">
         <v>134</v>
       </c>
@@ -60823,21 +60828,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EB7C19-E7A9-4AEF-AB2F-E2B8B7766BA3}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -60848,7 +60856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -60863,7 +60871,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -60878,7 +60886,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -60893,7 +60901,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -60908,7 +60916,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -60923,7 +60931,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -60938,7 +60946,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -60953,7 +60961,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -60968,7 +60976,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -60983,7 +60991,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -60998,7 +61006,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -61013,7 +61021,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -61028,9 +61036,17 @@
         <v>855</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>66712</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C13" xr:uid="{C0FE1299-1852-4009-BF69-DD29116DC943}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C13">
+    <sortState ref="A2:C13">
       <sortCondition ref="A1:A13"/>
     </sortState>
   </autoFilter>

--- a/docs/video_stats.xlsx
+++ b/docs/video_stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-4480" yWindow="-28360" windowWidth="33980" windowHeight="19440" activeTab="1"/>
+    <workbookView xWindow="60" yWindow="-21420" windowWidth="35800" windowHeight="23880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ms_per_step" sheetId="1" r:id="rId1"/>
@@ -81,70 +81,70 @@
     <t>file</t>
   </si>
   <si>
-    <t>flip_c_01_120</t>
+    <t>flip_p_01</t>
   </si>
   <si>
-    <t>flip_l_01_120</t>
+    <t>right_c_01</t>
   </si>
   <si>
-    <t>flip_p_01_120</t>
+    <t>takeoff_c_01</t>
   </si>
   <si>
-    <t>land_c_01_120</t>
+    <t>flip_c_01</t>
   </si>
   <si>
-    <t>land_l_01_120</t>
+    <t>flip_l_01</t>
   </si>
   <si>
-    <t>left_c_01_120</t>
+    <t>land_c_01</t>
   </si>
   <si>
-    <t>left_l_01_120</t>
+    <t>land_l_01</t>
   </si>
   <si>
-    <t>move_c_01_120</t>
+    <t>move_c_01</t>
   </si>
   <si>
-    <t>move_l_01_120</t>
+    <t>move_l_01</t>
   </si>
   <si>
-    <t>move_p_01_120</t>
+    <t>move_p_01</t>
   </si>
   <si>
-    <t>none_p_01_120</t>
+    <t>none_p_01</t>
   </si>
   <si>
-    <t>right_l_01_120</t>
+    <t>right_c_02</t>
   </si>
   <si>
-    <t>right_c_01_120</t>
+    <t>right_l_01</t>
   </si>
   <si>
-    <t>take_off_l_01_120</t>
+    <t>right_l_02</t>
   </si>
   <si>
-    <t>takeoff_c_01_120</t>
+    <t>right_l_03</t>
   </si>
   <si>
-    <t>left_c_03_120</t>
+    <t>takeoff_l_01</t>
   </si>
   <si>
-    <t>left_c_02_120</t>
+    <t>left_c_01</t>
   </si>
   <si>
-    <t>left_l_02_120</t>
+    <t>left_c_02</t>
   </si>
   <si>
-    <t>left_l_03_120</t>
+    <t>left_c_03</t>
   </si>
   <si>
-    <t>right_c_02_120</t>
+    <t>left_l_01</t>
   </si>
   <si>
-    <t>right_l_02_120</t>
+    <t>left_l_02</t>
   </si>
   <si>
-    <t>right_l_03_120</t>
+    <t>left_l_03</t>
   </si>
 </sst>
 </file>
@@ -219,7 +219,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -228,6 +228,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -235,14 +251,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="24">
     <cellStyle name="Bad" xfId="7" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -39328,7 +39360,7 @@
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>flip_c_01_120</c:v>
+                  <c:v>flip_c_01</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>flip_c_02</c:v>
@@ -39337,7 +39369,7 @@
                   <c:v>flip_c_03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>flip_l_01_120</c:v>
+                  <c:v>flip_l_01</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>flip_l_02</c:v>
@@ -39346,10 +39378,10 @@
                   <c:v>flip_l_03</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>flip_p_01_120</c:v>
+                  <c:v>flip_p_01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>land_c_01_120</c:v>
+                  <c:v>land_c_01</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>land_c_02</c:v>
@@ -39358,7 +39390,7 @@
                   <c:v>land_c_03</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>land_l_01_120</c:v>
+                  <c:v>land_l_01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -39664,7 +39696,7 @@
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>flip_c_01_120</c:v>
+                  <c:v>flip_c_01</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>flip_c_02</c:v>
@@ -39673,7 +39705,7 @@
                   <c:v>flip_c_03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>flip_l_01_120</c:v>
+                  <c:v>flip_l_01</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>flip_l_02</c:v>
@@ -39682,10 +39714,10 @@
                   <c:v>flip_l_03</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>flip_p_01_120</c:v>
+                  <c:v>flip_p_01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>land_c_01_120</c:v>
+                  <c:v>land_c_01</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>land_c_02</c:v>
@@ -39694,7 +39726,7 @@
                   <c:v>land_c_03</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>land_l_01_120</c:v>
+                  <c:v>land_l_01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -39777,7 +39809,7 @@
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>flip_c_01_120</c:v>
+                  <c:v>flip_c_01</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>flip_c_02</c:v>
@@ -39786,7 +39818,7 @@
                   <c:v>flip_c_03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>flip_l_01_120</c:v>
+                  <c:v>flip_l_01</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>flip_l_02</c:v>
@@ -39795,10 +39827,10 @@
                   <c:v>flip_l_03</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>flip_p_01_120</c:v>
+                  <c:v>flip_p_01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>land_c_01_120</c:v>
+                  <c:v>land_c_01</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>land_c_02</c:v>
@@ -39807,7 +39839,7 @@
                   <c:v>land_c_03</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>land_l_01_120</c:v>
+                  <c:v>land_l_01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -60914,9 +60946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -60942,7 +60972,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>68677</v>
@@ -60987,7 +61017,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>70576</v>
@@ -61032,7 +61062,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>66712</v>
@@ -61047,7 +61077,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>63482</v>
@@ -61092,7 +61122,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>68994</v>
@@ -61137,7 +61167,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>62482</v>
@@ -61152,7 +61182,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
         <v>61017</v>
@@ -61167,7 +61197,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1">
         <v>62982</v>
@@ -61182,7 +61212,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>65180</v>
@@ -61197,7 +61227,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1">
         <v>61750</v>
@@ -61212,7 +61242,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1">
         <v>63515</v>
@@ -61287,7 +61317,7 @@
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1">
         <v>69011</v>
@@ -61302,7 +61332,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
         <v>105258</v>
@@ -61317,7 +61347,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
         <v>69410</v>
@@ -61332,7 +61362,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1">
         <v>65980</v>
@@ -61347,7 +61377,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1">
         <v>61317</v>
@@ -61362,7 +61392,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1">
         <v>65647</v>
@@ -61377,7 +61407,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B31" s="1">
         <v>63448</v>

--- a/docs/video_stats.xlsx
+++ b/docs/video_stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="-21420" windowWidth="35800" windowHeight="23880" activeTab="1"/>
+    <workbookView xWindow="6020" yWindow="-23460" windowWidth="13900" windowHeight="23880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ms_per_step" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>takeoff_l_02</t>
   </si>
@@ -146,6 +146,12 @@
   <si>
     <t>left_l_03</t>
   </si>
+  <si>
+    <t>left_l_04</t>
+  </si>
+  <si>
+    <t>move_l_02</t>
+  </si>
 </sst>
 </file>
 
@@ -219,7 +225,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -244,6 +250,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -251,7 +261,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="28">
     <cellStyle name="Bad" xfId="7" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -264,6 +274,8 @@
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -275,6 +287,8 @@
     <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -37554,11 +37568,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2129385144"/>
-        <c:axId val="2129388744"/>
+        <c:axId val="-2124050456"/>
+        <c:axId val="-2107134584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2129385144"/>
+        <c:axId val="-2124050456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -37600,7 +37614,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129388744"/>
+        <c:crossAx val="-2107134584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -37608,7 +37622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129388744"/>
+        <c:axId val="-2107134584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="90.0"/>
@@ -37660,7 +37674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129385144"/>
+        <c:crossAx val="-2124050456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -39113,11 +39127,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2129468712"/>
-        <c:axId val="2129472376"/>
+        <c:axId val="-2105684920"/>
+        <c:axId val="-2105681384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2129468712"/>
+        <c:axId val="-2105684920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39159,7 +39173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129472376"/>
+        <c:crossAx val="-2105681384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -39167,7 +39181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129472376"/>
+        <c:axId val="-2105681384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="90.0"/>
@@ -39219,7 +39233,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129468712"/>
+        <c:crossAx val="-2105684920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -39452,11 +39466,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="2129527912"/>
-        <c:axId val="2129531672"/>
+        <c:axId val="-2107383400"/>
+        <c:axId val="-2107379816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2129527912"/>
+        <c:axId val="-2107383400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39499,7 +39513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129531672"/>
+        <c:crossAx val="-2107379816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -39507,7 +39521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129531672"/>
+        <c:axId val="-2107379816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39558,7 +39572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129527912"/>
+        <c:crossAx val="-2107383400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -39901,11 +39915,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="2130190120"/>
-        <c:axId val="2130222344"/>
+        <c:axId val="-2123907480"/>
+        <c:axId val="-2122810600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2130190120"/>
+        <c:axId val="-2123907480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39948,7 +39962,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130222344"/>
+        <c:crossAx val="-2122810600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -39956,7 +39970,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130222344"/>
+        <c:axId val="-2122810600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -40007,7 +40021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130190120"/>
+        <c:crossAx val="-2123907480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -41159,7 +41173,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56246A87-405D-417A-9F09-16E8C7DA384E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56246A87-405D-417A-9F09-16E8C7DA384E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41195,7 +41209,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22894A76-E63A-4933-9DD9-34F36B9AB60B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22894A76-E63A-4933-9DD9-34F36B9AB60B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41238,7 +41252,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBB2328E-F449-4B9E-86F4-73CF8083FABB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB2328E-F449-4B9E-86F4-73CF8083FABB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41274,7 +41288,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05CBEC8F-8F70-4837-BCAC-5047BDCDF1A4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05CBEC8F-8F70-4837-BCAC-5047BDCDF1A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41584,7 +41598,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -60944,9 +60958,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -60981,7 +60997,7 @@
         <v>66290</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D35" si="0">B2-C2</f>
+        <f t="shared" ref="D2:D37" si="0">B2-C2</f>
         <v>2387</v>
       </c>
     </row>
@@ -61300,7 +61316,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="15">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -61315,7 +61331,7 @@
         <v>-1150</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -61478,6 +61494,36 @@
       <c r="D35">
         <f t="shared" si="0"/>
         <v>855</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1">
+        <v>73873</v>
+      </c>
+      <c r="C36" s="1">
+        <v>72812</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1">
+        <v>71275</v>
+      </c>
+      <c r="C37" s="1">
+        <v>70429</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>846</v>
       </c>
     </row>
   </sheetData>
